--- a/biology/Histoire de la zoologie et de la botanique/Vero_Copner_Wynne-Edwards/Vero_Copner_Wynne-Edwards.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vero_Copner_Wynne-Edwards/Vero_Copner_Wynne-Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vero Copner Wynne-Edwards est un zoologiste britannique, né le 4 janvier 1906 à Leeds et mort le 5 janvier 1997 près d’Aberdeen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils benjamin d’une fratrie de six de John Rosindale et de Lilian née Streatfield. Son père est chanoine à l’Église d’Angleterre et directeur d’une école primaire de Leeds. Passionné très jeune par l’histoire naturelle et particulièrement par la botanique, il fait ses études à Oxford  où il obtient son Bachelor of Arts en 1927 et son Master of Arts en 1930. Il se marie, le 19 décembre 1929 à Jeannie Campbell Morris dont il aura deux enfants.
 Commençant à s’intéresser à la biologie marine, il commence à travailler dans le laboratoire de biologie marine de Plymouth où il étudie les crustacés et les poissons. Il commence à s’intéresser aussi aux dortoirs des étourneaux. Deux ans plus tard, il part à l’université de Bristol comme maître-assistant (1929-1930), puis il répond à l’invitation de l'université McGill de Montréal où il travaillera de 1930 à 1946.
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : XVI + 1855 p.
 Ian Newton (1999). In Memoriam : V.C. Wynne-Edwards, 1906-1997, The Auk, 116 (3) : 815-816</t>
